--- a/artfynd/A 8515-2023.xlsx
+++ b/artfynd/A 8515-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>362400</v>
+        <v>107243092</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Andsjön, 500 m S om, Jmt</t>
+          <t>Andsjön S, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>411503.76433708</v>
+        <v>411421.4891167989</v>
       </c>
       <c r="R2" t="n">
-        <v>7012254.156949783</v>
+        <v>7012761.11071289</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +755,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +765,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,39 +781,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>äldre granblandskog</t>
-        </is>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1 substratenheter # äldre granlåga</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Johan Råghall, Matilda Pettersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107243093</v>
+        <v>362400</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,37 +813,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bergtjärnen V, Jmt</t>
+          <t>Andsjön, 500 m S om, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>411603.424786491</v>
+        <v>411503.76433708</v>
       </c>
       <c r="R3" t="n">
-        <v>7012116.553984012</v>
+        <v>7012254.156949783</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -902,40 +894,38 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>äldre granblandskog</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>1 substratenheter # äldre granlåga</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Johan Råghall, Matilda Pettersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107243094</v>
+        <v>107243093</v>
       </c>
       <c r="B4" t="n">
-        <v>78503</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,41 +934,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bergtjärnen V, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>411541.2985301788</v>
+        <v>411603.424786491</v>
       </c>
       <c r="R4" t="n">
-        <v>7011893.614367554</v>
+        <v>7012116.553984012</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1029,23 +1016,22 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1063,10 +1049,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107243092</v>
+        <v>107243094</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>78503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,43 +1061,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Andsjön S, Jmt</t>
+          <t>Bergtjärnen V, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>411421.4891167989</v>
+        <v>411541.2985301788</v>
       </c>
       <c r="R5" t="n">
-        <v>7012761.11071289</v>
+        <v>7011893.614367554</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1162,8 +1146,24 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">

--- a/artfynd/A 8515-2023.xlsx
+++ b/artfynd/A 8515-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107243092</v>
+        <v>362400</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Andsjön S, Jmt</t>
+          <t>Andsjön, 500 m S om, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>411421.4891167989</v>
+        <v>411503.76433708</v>
       </c>
       <c r="R2" t="n">
-        <v>7012761.11071289</v>
+        <v>7012254.156949783</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -781,26 +776,39 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>äldre granblandskog</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>1 substratenheter # äldre granlåga</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Johan Råghall, Matilda Pettersson</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>362400</v>
+        <v>107243093</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,37 +821,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Andsjön, 500 m S om, Jmt</t>
+          <t>Bergtjärnen V, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>411503.76433708</v>
+        <v>411603.424786491</v>
       </c>
       <c r="R3" t="n">
-        <v>7012254.156949783</v>
+        <v>7012116.553984012</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -894,38 +902,40 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>äldre granblandskog</t>
-        </is>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1 substratenheter # äldre granlåga</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Johan Råghall, Matilda Pettersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107243093</v>
+        <v>107243094</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>78503</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,38 +944,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Bergtjärnen V, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>411603.424786491</v>
+        <v>411541.2985301788</v>
       </c>
       <c r="R4" t="n">
-        <v>7012116.553984012</v>
+        <v>7011893.614367554</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,22 +1029,23 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1049,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107243094</v>
+        <v>107243092</v>
       </c>
       <c r="B5" t="n">
-        <v>78503</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1061,41 +1075,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bergtjärnen V, Jmt</t>
+          <t>Andsjön S, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>411541.2985301788</v>
+        <v>411421.4891167989</v>
       </c>
       <c r="R5" t="n">
-        <v>7011893.614367554</v>
+        <v>7012761.11071289</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1146,24 +1162,8 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
